--- a/data/trans_orig/P16A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17D4EE1-538D-4B8A-922F-29951FD8C57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB84C743-A6B0-4CCF-9849-54F4F5CF525B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E581DBA4-3636-4629-8655-EC8ED931A2E6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{228ACA53-6CE1-4063-BF89-3D45F05900B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="446">
   <si>
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1336 +77,1306 @@
     <t>7,15%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>88,87%</t>
   </si>
   <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
     <t>7,88%</t>
   </si>
   <si>
     <t>93,1%</t>
   </si>
   <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
   </si>
   <si>
     <t>92,77%</t>
   </si>
   <si>
     <t>92,12%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215BF000-14D0-4652-B176-528C288D95EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E86DD2E-29C0-4BFE-B475-28B0A23EE588}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2285,10 +2255,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,13 +2273,13 @@
         <v>598454</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>613</v>
@@ -2318,13 +2288,13 @@
         <v>638355</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1187</v>
@@ -2333,13 +2303,13 @@
         <v>1236809</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,7 +2365,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2407,13 +2377,13 @@
         <v>26776</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -2422,13 +2392,13 @@
         <v>21808</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -2437,13 +2407,13 @@
         <v>48584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,13 +2428,13 @@
         <v>492371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>481</v>
@@ -2473,13 +2443,13 @@
         <v>493834</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>941</v>
@@ -2488,13 +2458,13 @@
         <v>986205</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,7 +2520,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2565,10 +2535,10 @@
         <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -2577,13 +2547,13 @@
         <v>21366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -2592,13 +2562,13 @@
         <v>47727</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,13 +2583,13 @@
         <v>360348</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>375</v>
@@ -2628,13 +2598,13 @@
         <v>382620</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>740</v>
@@ -2643,13 +2613,13 @@
         <v>742969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,7 +2675,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2717,13 +2687,13 @@
         <v>64622</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -2732,13 +2702,13 @@
         <v>45201</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -2747,13 +2717,13 @@
         <v>109824</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,13 +2738,13 @@
         <v>437844</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>616</v>
@@ -2783,13 +2753,13 @@
         <v>631641</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>1073</v>
@@ -2798,13 +2768,13 @@
         <v>1069484</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,13 +2842,13 @@
         <v>226720</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>207</v>
@@ -2887,13 +2857,13 @@
         <v>217084</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>434</v>
@@ -2902,13 +2872,13 @@
         <v>443804</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,16 +2890,16 @@
         <v>2986</v>
       </c>
       <c r="D23" s="7">
-        <v>3048805</v>
+        <v>3048806</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
         <v>3090</v>
@@ -2938,28 +2908,28 @@
         <v>3162114</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>6076</v>
       </c>
       <c r="N23" s="7">
-        <v>6210918</v>
+        <v>6210919</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,7 +2941,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3001,7 +2971,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3015,7 +2985,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3037,7 +3007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF16284-07D1-4B07-A206-EBDFE7B3081D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6827F775-8CF3-4BA5-A0C7-927C3318F6C1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3054,7 +3024,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3161,13 +3131,13 @@
         <v>41490</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -3176,13 +3146,13 @@
         <v>51300</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>90</v>
@@ -3191,13 +3161,13 @@
         <v>92791</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3182,13 @@
         <v>411615</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>370</v>
@@ -3227,13 +3197,13 @@
         <v>378039</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>775</v>
@@ -3242,13 +3212,13 @@
         <v>789654</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3286,13 @@
         <v>65431</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -3331,13 +3301,13 @@
         <v>56850</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>116</v>
@@ -3346,13 +3316,13 @@
         <v>122281</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3337,13 @@
         <v>620807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>515</v>
@@ -3382,13 +3352,13 @@
         <v>552364</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>1120</v>
@@ -3397,13 +3367,13 @@
         <v>1173170</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3441,13 @@
         <v>56671</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -3486,13 +3456,13 @@
         <v>51924</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -3501,13 +3471,13 @@
         <v>108595</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3492,13 @@
         <v>623383</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>612</v>
@@ -3537,13 +3507,13 @@
         <v>654011</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>1209</v>
@@ -3552,13 +3522,13 @@
         <v>1277394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,7 +3584,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3626,13 +3596,13 @@
         <v>48013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -3641,13 +3611,13 @@
         <v>46201</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -3656,13 +3626,13 @@
         <v>94214</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3647,13 @@
         <v>566604</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -3692,13 +3662,13 @@
         <v>567871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>1002</v>
@@ -3707,13 +3677,13 @@
         <v>1134475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,7 +3739,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3781,13 +3751,13 @@
         <v>39943</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -3796,13 +3766,13 @@
         <v>27162</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -3811,13 +3781,13 @@
         <v>67105</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3802,13 @@
         <v>388401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>380</v>
@@ -3847,13 +3817,13 @@
         <v>419513</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>737</v>
@@ -3862,13 +3832,13 @@
         <v>807913</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,7 +3894,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3936,13 +3906,13 @@
         <v>71439</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -3951,13 +3921,13 @@
         <v>61521</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -3966,13 +3936,13 @@
         <v>132959</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3957,13 @@
         <v>485392</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
         <v>634</v>
@@ -4002,13 +3972,13 @@
         <v>678291</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M20" s="7">
         <v>1071</v>
@@ -4017,13 +3987,13 @@
         <v>1163684</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4061,13 @@
         <v>322987</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H22" s="7">
         <v>280</v>
@@ -4106,13 +4076,13 @@
         <v>294958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>574</v>
@@ -4121,13 +4091,13 @@
         <v>617945</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4112,13 @@
         <v>3096201</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="H23" s="7">
         <v>3006</v>
@@ -4157,28 +4127,28 @@
         <v>3250090</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>251</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>5914</v>
       </c>
       <c r="N23" s="7">
-        <v>6346291</v>
+        <v>6346290</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,7 +4190,7 @@
         <v>6488</v>
       </c>
       <c r="N24" s="7">
-        <v>6964236</v>
+        <v>6964235</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4234,7 +4204,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4256,7 +4226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD9F8DF-08F0-4478-B89E-C02AB9A2C367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5525DFFE-AFA6-42CC-BD4B-76B7A4273382}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4273,7 +4243,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4380,13 +4350,13 @@
         <v>25645</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
@@ -4395,13 +4365,13 @@
         <v>45490</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>69</v>
@@ -4410,13 +4380,13 @@
         <v>71135</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4401,13 @@
         <v>393818</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H5" s="7">
         <v>358</v>
@@ -4446,13 +4416,13 @@
         <v>350265</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M5" s="7">
         <v>728</v>
@@ -4461,13 +4431,13 @@
         <v>744083</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4505,13 @@
         <v>51683</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -4550,13 +4520,13 @@
         <v>46723</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
@@ -4565,13 +4535,13 @@
         <v>98406</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4556,13 @@
         <v>538813</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H8" s="7">
         <v>530</v>
@@ -4601,13 +4571,13 @@
         <v>516821</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M8" s="7">
         <v>1050</v>
@@ -4616,13 +4586,13 @@
         <v>1055634</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4660,13 @@
         <v>49237</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -4705,13 +4675,13 @@
         <v>52916</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -4720,13 +4690,13 @@
         <v>102152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4711,13 @@
         <v>619860</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>612</v>
@@ -4756,13 +4726,13 @@
         <v>608470</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>1201</v>
@@ -4771,13 +4741,13 @@
         <v>1228331</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,7 +4803,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4845,13 +4815,13 @@
         <v>40725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -4860,13 +4830,13 @@
         <v>44708</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -4875,13 +4845,13 @@
         <v>85433</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +4866,13 @@
         <v>605323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>306</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>561</v>
@@ -4911,28 +4881,28 @@
         <v>604369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>1107</v>
       </c>
       <c r="N14" s="7">
-        <v>1209692</v>
+        <v>1209693</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,7 +4944,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4988,7 +4958,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5000,13 +4970,13 @@
         <v>36957</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -5015,13 +4985,13 @@
         <v>41376</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -5030,13 +5000,13 @@
         <v>78332</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5021,13 @@
         <v>440961</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>397</v>
@@ -5066,13 +5036,13 @@
         <v>455473</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>789</v>
@@ -5081,13 +5051,13 @@
         <v>896435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,7 +5113,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5155,13 +5125,13 @@
         <v>56886</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -5170,13 +5140,13 @@
         <v>64066</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -5185,13 +5155,13 @@
         <v>120953</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>328</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5176,13 @@
         <v>534442</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H20" s="7">
         <v>604</v>
@@ -5221,13 +5191,13 @@
         <v>713865</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M20" s="7">
         <v>1169</v>
@@ -5236,13 +5206,13 @@
         <v>1248306</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5280,13 @@
         <v>261133</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>261</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>276</v>
@@ -5325,13 +5295,13 @@
         <v>295278</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>525</v>
@@ -5340,13 +5310,13 @@
         <v>556411</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>345</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5331,13 @@
         <v>3133217</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>347</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>268</v>
+        <v>27</v>
       </c>
       <c r="H23" s="7">
         <v>3062</v>
@@ -5376,13 +5346,13 @@
         <v>3249264</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M23" s="7">
         <v>6044</v>
@@ -5391,13 +5361,13 @@
         <v>6382481</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>350</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,7 +5423,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5475,7 +5445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D693FB-F8D5-4C49-ADDF-E611E5BBF028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DE0D35-B6C6-4F53-B809-6068DF0C5FBF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5492,7 +5462,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5599,13 +5569,13 @@
         <v>16932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -5614,13 +5584,13 @@
         <v>28492</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -5629,13 +5599,13 @@
         <v>45424</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5620,13 @@
         <v>360747</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H5" s="7">
         <v>191</v>
@@ -5665,13 +5635,13 @@
         <v>326465</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M5" s="7">
         <v>354</v>
@@ -5680,13 +5650,13 @@
         <v>687212</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5724,13 @@
         <v>45828</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>367</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -5769,13 +5739,13 @@
         <v>38721</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -5784,13 +5754,13 @@
         <v>84549</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>376</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,13 +5775,13 @@
         <v>382568</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>375</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -5820,13 +5790,13 @@
         <v>459856</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>380</v>
+        <v>173</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M8" s="7">
         <v>697</v>
@@ -5835,13 +5805,13 @@
         <v>842424</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>385</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,13 +5879,13 @@
         <v>41814</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>388</v>
+        <v>313</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -5924,13 +5894,13 @@
         <v>38999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>390</v>
+        <v>297</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -5939,13 +5909,13 @@
         <v>80813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5930,13 @@
         <v>515438</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>395</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>786</v>
@@ -5975,13 +5945,13 @@
         <v>543636</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>399</v>
+        <v>306</v>
       </c>
       <c r="M11" s="7">
         <v>1290</v>
@@ -5990,13 +5960,13 @@
         <v>1059074</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,7 +6022,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6064,13 +6034,13 @@
         <v>44270</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -6079,13 +6049,13 @@
         <v>49046</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>405</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>305</v>
+        <v>397</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -6094,13 +6064,13 @@
         <v>93316</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>398</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>406</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6085,13 @@
         <v>679720</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>1063</v>
@@ -6130,28 +6100,28 @@
         <v>698215</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>311</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>411</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
         <v>1685</v>
       </c>
       <c r="N14" s="7">
-        <v>1377936</v>
+        <v>1377935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,7 +6163,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6207,7 +6177,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6219,13 +6189,13 @@
         <v>34806</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>91</v>
@@ -6234,13 +6204,13 @@
         <v>53949</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>127</v>
+        <v>408</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>128</v>
@@ -6249,13 +6219,13 @@
         <v>88756</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6240,13 @@
         <v>564280</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>909</v>
@@ -6285,13 +6255,13 @@
         <v>539627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>425</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>416</v>
       </c>
       <c r="M17" s="7">
         <v>1534</v>
@@ -6300,13 +6270,13 @@
         <v>1103906</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6362,7 +6332,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6374,13 +6344,13 @@
         <v>50012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>431</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>143</v>
@@ -6389,13 +6359,13 @@
         <v>76743</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>217</v>
@@ -6404,13 +6374,13 @@
         <v>126755</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,16 +6392,16 @@
         <v>954</v>
       </c>
       <c r="D20" s="7">
-        <v>647742</v>
+        <v>647743</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>1562</v>
@@ -6440,13 +6410,13 @@
         <v>948272</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>2516</v>
@@ -6455,13 +6425,13 @@
         <v>1596015</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,7 +6443,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6529,13 +6499,13 @@
         <v>233661</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H22" s="7">
         <v>421</v>
@@ -6544,13 +6514,13 @@
         <v>285951</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="M22" s="7">
         <v>657</v>
@@ -6559,13 +6529,13 @@
         <v>519612</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6550,13 @@
         <v>3150497</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H23" s="7">
         <v>4937</v>
@@ -6595,13 +6565,13 @@
         <v>3516071</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="M23" s="7">
         <v>8076</v>
@@ -6610,13 +6580,13 @@
         <v>6666567</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>455</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,7 +6642,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB84C743-A6B0-4CCF-9849-54F4F5CF525B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02E2D3C9-7ED8-49E2-A4F3-C0DC124645B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{228ACA53-6CE1-4063-BF89-3D45F05900B4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3E05D55-3E92-446F-84C6-3DC38699161F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="458">
   <si>
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1257 +77,1296 @@
     <t>7,15%</t>
   </si>
   <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
     <t>92,51%</t>
   </si>
   <si>
@@ -1335,9 +1374,6 @@
   </si>
   <si>
     <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
   </si>
   <si>
     <t>94,18%</t>
@@ -1788,7 +1824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E86DD2E-29C0-4BFE-B475-28B0A23EE588}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55D24B5-6C8C-436E-8267-99819DAA2391}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2255,10 +2291,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,10 +2342,10 @@
         <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,7 +2419,7 @@
         <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -2392,13 +2428,13 @@
         <v>21808</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -2407,13 +2443,13 @@
         <v>48584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2464,13 @@
         <v>492371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>481</v>
@@ -2443,13 +2479,13 @@
         <v>493834</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>941</v>
@@ -2458,13 +2494,13 @@
         <v>986205</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,7 +2556,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2535,10 +2571,10 @@
         <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -2547,13 +2583,13 @@
         <v>21366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -2562,13 +2598,13 @@
         <v>47727</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,10 +2622,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>375</v>
@@ -2598,13 +2634,13 @@
         <v>382620</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>740</v>
@@ -2613,13 +2649,13 @@
         <v>742969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,7 +2711,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2687,13 +2723,13 @@
         <v>64622</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -2702,13 +2738,13 @@
         <v>45201</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -2717,13 +2753,13 @@
         <v>109824</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2774,13 @@
         <v>437844</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>616</v>
@@ -2753,13 +2789,13 @@
         <v>631641</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>1073</v>
@@ -2768,13 +2804,13 @@
         <v>1069484</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2878,13 @@
         <v>226720</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>207</v>
@@ -2857,13 +2893,13 @@
         <v>217084</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>434</v>
@@ -2872,13 +2908,13 @@
         <v>443804</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,16 +2926,16 @@
         <v>2986</v>
       </c>
       <c r="D23" s="7">
-        <v>3048806</v>
+        <v>3048805</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>3090</v>
@@ -2908,13 +2944,13 @@
         <v>3162114</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>6076</v>
@@ -2923,13 +2959,13 @@
         <v>6210919</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,7 +2977,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2985,7 +3021,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +3043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6827F775-8CF3-4BA5-A0C7-927C3318F6C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F70A39D-32DE-4DC5-805C-46B975A80781}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3024,7 +3060,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3131,13 +3167,13 @@
         <v>41490</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -3146,13 +3182,13 @@
         <v>51300</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>90</v>
@@ -3161,13 +3197,13 @@
         <v>92791</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3218,13 @@
         <v>411615</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>370</v>
@@ -3197,13 +3233,13 @@
         <v>378039</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>775</v>
@@ -3212,13 +3248,13 @@
         <v>789654</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3322,13 @@
         <v>65431</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -3301,13 +3337,13 @@
         <v>56850</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>116</v>
@@ -3316,10 +3352,10 @@
         <v>122281</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>164</v>
@@ -3337,13 +3373,13 @@
         <v>620807</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>515</v>
@@ -3352,13 +3388,13 @@
         <v>552364</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>1120</v>
@@ -3367,13 +3403,13 @@
         <v>1173170</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3477,13 @@
         <v>56671</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -3456,7 +3492,7 @@
         <v>51924</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>176</v>
@@ -3471,13 +3507,13 @@
         <v>108595</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,7 +3534,7 @@
         <v>181</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="H11" s="7">
         <v>612</v>
@@ -3507,13 +3543,13 @@
         <v>654011</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7">
         <v>1209</v>
@@ -3522,13 +3558,13 @@
         <v>1277394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3632,13 @@
         <v>48013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -3611,13 +3647,13 @@
         <v>46201</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -3626,13 +3662,13 @@
         <v>94214</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3683,13 @@
         <v>566604</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -3662,13 +3698,13 @@
         <v>567871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>1002</v>
@@ -3677,13 +3713,13 @@
         <v>1134475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,7 +3775,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3751,13 +3787,13 @@
         <v>39943</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -3766,13 +3802,13 @@
         <v>27162</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -3781,13 +3817,13 @@
         <v>67105</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3838,13 @@
         <v>388401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="H17" s="7">
         <v>380</v>
@@ -3817,13 +3853,13 @@
         <v>419513</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>737</v>
@@ -3832,13 +3868,13 @@
         <v>807913</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,7 +3930,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3906,13 +3942,13 @@
         <v>71439</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -3921,13 +3957,13 @@
         <v>61521</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -3936,13 +3972,13 @@
         <v>132959</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3993,13 @@
         <v>485392</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H20" s="7">
         <v>634</v>
@@ -3972,13 +4008,13 @@
         <v>678291</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>1071</v>
@@ -3987,13 +4023,13 @@
         <v>1163684</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4097,13 @@
         <v>322987</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>280</v>
@@ -4076,13 +4112,13 @@
         <v>294958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>239</v>
       </c>
       <c r="M22" s="7">
         <v>574</v>
@@ -4091,13 +4127,13 @@
         <v>617945</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4148,13 @@
         <v>3096201</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="H23" s="7">
         <v>3006</v>
@@ -4127,13 +4163,13 @@
         <v>3250090</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="M23" s="7">
         <v>5914</v>
@@ -4142,13 +4178,13 @@
         <v>6346290</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,7 +4240,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4226,7 +4262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5525DFFE-AFA6-42CC-BD4B-76B7A4273382}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981E8907-B920-4C4E-BF18-1A9959F5D233}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4243,7 +4279,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4350,13 +4386,13 @@
         <v>25645</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
@@ -4365,13 +4401,13 @@
         <v>45490</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>69</v>
@@ -4380,13 +4416,13 @@
         <v>71135</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4437,13 @@
         <v>393818</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="H5" s="7">
         <v>358</v>
@@ -4416,13 +4452,13 @@
         <v>350265</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M5" s="7">
         <v>728</v>
@@ -4431,13 +4467,13 @@
         <v>744083</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4541,13 @@
         <v>51683</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -4520,13 +4556,13 @@
         <v>46723</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
@@ -4535,13 +4571,13 @@
         <v>98406</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,13 +4592,13 @@
         <v>538813</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H8" s="7">
         <v>530</v>
@@ -4571,13 +4607,13 @@
         <v>516821</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>1050</v>
@@ -4586,13 +4622,13 @@
         <v>1055634</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4696,13 @@
         <v>49237</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -4675,13 +4711,13 @@
         <v>52916</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -4690,13 +4726,13 @@
         <v>102152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4747,13 @@
         <v>619860</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>612</v>
@@ -4726,13 +4762,13 @@
         <v>608470</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M11" s="7">
         <v>1201</v>
@@ -4741,13 +4777,13 @@
         <v>1228331</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4851,13 @@
         <v>40725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -4830,13 +4866,13 @@
         <v>44708</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -4845,13 +4881,13 @@
         <v>85433</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4902,13 @@
         <v>605323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>561</v>
@@ -4881,28 +4917,28 @@
         <v>604369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M14" s="7">
         <v>1107</v>
       </c>
       <c r="N14" s="7">
-        <v>1209693</v>
+        <v>1209692</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,7 +4980,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4958,7 +4994,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4970,13 +5006,13 @@
         <v>36957</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4985,13 +5021,13 @@
         <v>41376</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -5000,13 +5036,13 @@
         <v>78332</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,13 +5057,13 @@
         <v>440961</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>397</v>
@@ -5039,10 +5075,10 @@
         <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M17" s="7">
         <v>789</v>
@@ -5051,13 +5087,13 @@
         <v>896435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,7 +5149,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5125,13 +5161,13 @@
         <v>56886</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -5140,13 +5176,13 @@
         <v>64066</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -5155,13 +5191,13 @@
         <v>120953</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
+        <v>158</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,13 +5212,13 @@
         <v>534442</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="H20" s="7">
         <v>604</v>
@@ -5191,13 +5227,13 @@
         <v>713865</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>1169</v>
@@ -5206,13 +5242,13 @@
         <v>1248306</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>338</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,10 +5319,10 @@
         <v>339</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="H22" s="7">
         <v>276</v>
@@ -5295,13 +5331,13 @@
         <v>295278</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>342</v>
       </c>
       <c r="M22" s="7">
         <v>525</v>
@@ -5310,13 +5346,13 @@
         <v>556411</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5367,13 @@
         <v>3133217</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>347</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="H23" s="7">
         <v>3062</v>
@@ -5349,10 +5385,10 @@
         <v>180</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M23" s="7">
         <v>6044</v>
@@ -5361,13 +5397,13 @@
         <v>6382481</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>155</v>
+        <v>351</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,7 +5459,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5445,7 +5481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DE0D35-B6C6-4F53-B809-6068DF0C5FBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB040AD-5284-43E7-90ED-B2D33BB43C64}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5462,7 +5498,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5569,13 +5605,13 @@
         <v>16932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -5584,13 +5620,13 @@
         <v>28492</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -5599,13 +5635,13 @@
         <v>45424</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5656,13 @@
         <v>360747</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>358</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H5" s="7">
         <v>191</v>
@@ -5635,13 +5671,13 @@
         <v>326465</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M5" s="7">
         <v>354</v>
@@ -5650,13 +5686,13 @@
         <v>687212</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5760,13 @@
         <v>45828</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -5739,13 +5775,13 @@
         <v>38721</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -5754,13 +5790,13 @@
         <v>84549</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>268</v>
+        <v>377</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5811,13 @@
         <v>382568</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -5790,13 +5826,13 @@
         <v>459856</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>382</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="M8" s="7">
         <v>697</v>
@@ -5805,13 +5841,13 @@
         <v>842424</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5915,13 @@
         <v>41814</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>313</v>
+        <v>390</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -5894,13 +5930,13 @@
         <v>38999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>297</v>
+        <v>392</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>383</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -5909,13 +5945,13 @@
         <v>80813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5966,13 @@
         <v>515438</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>397</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="H11" s="7">
         <v>786</v>
@@ -5945,13 +5981,13 @@
         <v>543636</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>306</v>
+        <v>400</v>
       </c>
       <c r="M11" s="7">
         <v>1290</v>
@@ -5960,13 +5996,13 @@
         <v>1059074</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6070,13 @@
         <v>44270</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -6049,13 +6085,13 @@
         <v>49046</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>407</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -6064,13 +6100,13 @@
         <v>93316</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6121,13 @@
         <v>679720</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="H14" s="7">
         <v>1063</v>
@@ -6100,13 +6136,13 @@
         <v>698215</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>415</v>
       </c>
       <c r="M14" s="7">
         <v>1685</v>
@@ -6115,13 +6151,13 @@
         <v>1377935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,7 +6213,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6189,13 +6225,13 @@
         <v>34806</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="H16" s="7">
         <v>91</v>
@@ -6204,13 +6240,13 @@
         <v>53949</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="M16" s="7">
         <v>128</v>
@@ -6219,13 +6255,13 @@
         <v>88756</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6276,13 @@
         <v>564280</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="H17" s="7">
         <v>909</v>
@@ -6255,13 +6291,13 @@
         <v>539627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="M17" s="7">
         <v>1534</v>
@@ -6270,13 +6306,13 @@
         <v>1103906</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,7 +6368,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6344,13 +6380,13 @@
         <v>50012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>433</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="H19" s="7">
         <v>143</v>
@@ -6359,13 +6395,13 @@
         <v>76743</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="M19" s="7">
         <v>217</v>
@@ -6374,13 +6410,13 @@
         <v>126755</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>426</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,13 +6431,13 @@
         <v>647743</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>441</v>
       </c>
       <c r="H20" s="7">
         <v>1562</v>
@@ -6410,13 +6446,13 @@
         <v>948272</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="M20" s="7">
         <v>2516</v>
@@ -6425,13 +6461,13 @@
         <v>1596015</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>432</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6535,13 @@
         <v>233661</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="H22" s="7">
         <v>421</v>
@@ -6514,13 +6550,13 @@
         <v>285951</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>426</v>
+        <v>237</v>
       </c>
       <c r="M22" s="7">
         <v>657</v>
@@ -6529,13 +6565,13 @@
         <v>519612</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6586,13 @@
         <v>3150497</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="H23" s="7">
         <v>4937</v>
@@ -6565,13 +6601,13 @@
         <v>3516071</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>432</v>
+        <v>244</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="M23" s="7">
         <v>8076</v>
@@ -6580,13 +6616,13 @@
         <v>6666567</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,7 +6678,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02E2D3C9-7ED8-49E2-A4F3-C0DC124645B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B79D3F48-DA2C-4FE4-8225-9BC559E041ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3E05D55-3E92-446F-84C6-3DC38699161F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4758F23F-3C13-4E80-A72B-EAB476C3AE97}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
   <si>
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>7,15%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>92,85%</t>
   </si>
   <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
   </si>
   <si>
     <t>93,59%</t>
   </si>
   <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1279 +140,1273 @@
     <t>4,68%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>8,38%</t>
   </si>
   <si>
-    <t>7,45%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>6,58%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55D24B5-6C8C-436E-8267-99819DAA2391}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C6753B-0DB4-4FE8-AA7C-9674794ECD44}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2294,7 +2288,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2303,13 @@
         <v>598454</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>613</v>
@@ -2324,13 +2318,13 @@
         <v>638355</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1187</v>
@@ -2339,13 +2333,13 @@
         <v>1236809</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,7 +2395,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2413,13 +2407,13 @@
         <v>26776</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -2428,13 +2422,13 @@
         <v>21808</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -2443,13 +2437,13 @@
         <v>48584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,13 +2458,13 @@
         <v>492371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>481</v>
@@ -2479,13 +2473,13 @@
         <v>493834</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>941</v>
@@ -2494,13 +2488,13 @@
         <v>986205</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,7 +2550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2571,10 +2565,10 @@
         <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -2583,13 +2577,13 @@
         <v>21366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -2598,13 +2592,13 @@
         <v>47727</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,13 +2613,13 @@
         <v>360348</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>375</v>
@@ -2634,13 +2628,13 @@
         <v>382620</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>740</v>
@@ -2649,13 +2643,13 @@
         <v>742969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,7 +2705,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2723,13 +2717,13 @@
         <v>64622</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -2738,13 +2732,13 @@
         <v>45201</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -2753,13 +2747,13 @@
         <v>109824</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,13 +2768,13 @@
         <v>437844</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>616</v>
@@ -2789,13 +2783,13 @@
         <v>631641</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>1073</v>
@@ -2804,13 +2798,13 @@
         <v>1069484</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2872,13 @@
         <v>226720</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>207</v>
@@ -2893,13 +2887,13 @@
         <v>217084</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>434</v>
@@ -2908,13 +2902,13 @@
         <v>443804</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2923,13 @@
         <v>3048805</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>3090</v>
@@ -2944,28 +2938,28 @@
         <v>3162114</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>6076</v>
       </c>
       <c r="N23" s="7">
-        <v>6210919</v>
+        <v>6210918</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,7 +3001,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3021,7 +3015,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3043,7 +3037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F70A39D-32DE-4DC5-805C-46B975A80781}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7C61DD-6B2C-4BBD-8A52-0FF94787338A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3060,7 +3054,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3167,13 +3161,13 @@
         <v>41490</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -3182,13 +3176,13 @@
         <v>51300</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>90</v>
@@ -3197,13 +3191,13 @@
         <v>92791</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3212,13 @@
         <v>411615</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>370</v>
@@ -3233,13 +3227,13 @@
         <v>378039</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>775</v>
@@ -3248,13 +3242,13 @@
         <v>789654</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3316,13 @@
         <v>65431</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -3337,13 +3331,13 @@
         <v>56850</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>116</v>
@@ -3352,13 +3346,13 @@
         <v>122281</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3367,13 @@
         <v>620807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>515</v>
@@ -3388,13 +3382,13 @@
         <v>552364</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>1120</v>
@@ -3403,13 +3397,13 @@
         <v>1173170</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3471,13 @@
         <v>56671</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -3492,13 +3486,13 @@
         <v>51924</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -3507,13 +3501,13 @@
         <v>108595</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3522,13 @@
         <v>623383</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>612</v>
@@ -3543,13 +3537,13 @@
         <v>654011</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>1209</v>
@@ -3558,13 +3552,13 @@
         <v>1277394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,7 +3614,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3632,13 +3626,13 @@
         <v>48013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -3647,13 +3641,13 @@
         <v>46201</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -3662,13 +3656,13 @@
         <v>94214</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3677,13 @@
         <v>566604</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -3698,13 +3692,13 @@
         <v>567871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>1002</v>
@@ -3713,13 +3707,13 @@
         <v>1134475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,7 +3769,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3787,13 +3781,13 @@
         <v>39943</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -3802,13 +3796,13 @@
         <v>27162</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -3817,13 +3811,13 @@
         <v>67105</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3832,13 @@
         <v>388401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>380</v>
@@ -3853,13 +3847,13 @@
         <v>419513</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>737</v>
@@ -3868,13 +3862,13 @@
         <v>807913</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,7 +3924,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3942,13 +3936,13 @@
         <v>71439</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -3957,13 +3951,13 @@
         <v>61521</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -3972,13 +3966,13 @@
         <v>132959</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3987,13 @@
         <v>485392</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H20" s="7">
         <v>634</v>
@@ -4008,13 +4002,13 @@
         <v>678291</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M20" s="7">
         <v>1071</v>
@@ -4023,13 +4017,13 @@
         <v>1163684</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4091,13 @@
         <v>322987</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>280</v>
@@ -4112,13 +4106,13 @@
         <v>294958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>574</v>
@@ -4127,13 +4121,13 @@
         <v>617945</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4142,13 @@
         <v>3096201</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H23" s="7">
         <v>3006</v>
@@ -4163,28 +4157,28 @@
         <v>3250090</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>245</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M23" s="7">
         <v>5914</v>
       </c>
       <c r="N23" s="7">
-        <v>6346290</v>
+        <v>6346291</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,7 +4220,7 @@
         <v>6488</v>
       </c>
       <c r="N24" s="7">
-        <v>6964235</v>
+        <v>6964236</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4240,7 +4234,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4262,7 +4256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981E8907-B920-4C4E-BF18-1A9959F5D233}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF613C8-52F8-4838-9055-75FAE017CA97}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4279,7 +4273,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4386,13 +4380,13 @@
         <v>25645</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>251</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
@@ -4401,13 +4395,13 @@
         <v>45490</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M4" s="7">
         <v>69</v>
@@ -4416,13 +4410,13 @@
         <v>71135</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4431,13 @@
         <v>393818</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="H5" s="7">
         <v>358</v>
@@ -4452,13 +4446,13 @@
         <v>350265</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M5" s="7">
         <v>728</v>
@@ -4467,13 +4461,13 @@
         <v>744083</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4535,13 @@
         <v>51683</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -4556,13 +4550,13 @@
         <v>46723</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
@@ -4571,13 +4565,13 @@
         <v>98406</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>273</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,13 +4586,13 @@
         <v>538813</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H8" s="7">
         <v>530</v>
@@ -4607,13 +4601,13 @@
         <v>516821</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>280</v>
       </c>
       <c r="M8" s="7">
         <v>1050</v>
@@ -4622,13 +4616,13 @@
         <v>1055634</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4690,13 @@
         <v>49237</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>283</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -4711,13 +4705,13 @@
         <v>52916</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -4726,13 +4720,13 @@
         <v>102152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4741,13 @@
         <v>619860</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="H11" s="7">
         <v>612</v>
@@ -4762,13 +4756,13 @@
         <v>608470</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M11" s="7">
         <v>1201</v>
@@ -4777,13 +4771,13 @@
         <v>1228331</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,7 +4833,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4851,13 +4845,13 @@
         <v>40725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -4866,13 +4860,13 @@
         <v>44708</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -4881,13 +4875,13 @@
         <v>85433</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,13 +4896,13 @@
         <v>605323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H14" s="7">
         <v>561</v>
@@ -4917,13 +4911,13 @@
         <v>604369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>1107</v>
@@ -4932,13 +4926,13 @@
         <v>1209692</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,7 +4988,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5006,13 +5000,13 @@
         <v>36957</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -5021,13 +5015,13 @@
         <v>41376</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -5036,13 +5030,13 @@
         <v>78332</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5051,13 @@
         <v>440961</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>397</v>
@@ -5072,13 +5066,13 @@
         <v>455473</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>789</v>
@@ -5087,7 +5081,7 @@
         <v>896435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>323</v>
@@ -5149,7 +5143,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5164,10 +5158,10 @@
         <v>325</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -5176,13 +5170,13 @@
         <v>64066</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -5191,13 +5185,13 @@
         <v>120953</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5206,13 @@
         <v>534442</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>48</v>
+        <v>335</v>
       </c>
       <c r="H20" s="7">
         <v>604</v>
@@ -5227,13 +5221,13 @@
         <v>713865</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M20" s="7">
         <v>1169</v>
@@ -5242,13 +5236,13 @@
         <v>1248306</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5310,13 @@
         <v>261133</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>57</v>
+        <v>261</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H22" s="7">
         <v>276</v>
@@ -5331,13 +5325,13 @@
         <v>295278</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>525</v>
@@ -5346,10 +5340,10 @@
         <v>556411</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>345</v>
@@ -5373,7 +5367,7 @@
         <v>347</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>65</v>
+        <v>268</v>
       </c>
       <c r="H23" s="7">
         <v>3062</v>
@@ -5382,13 +5376,13 @@
         <v>3249264</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M23" s="7">
         <v>6044</v>
@@ -5397,13 +5391,13 @@
         <v>6382481</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,7 +5453,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5481,7 +5475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB040AD-5284-43E7-90ED-B2D33BB43C64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D01DEC-F453-4E53-87AC-4C4CB13AFE7F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5498,7 +5492,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5605,13 +5599,13 @@
         <v>16932</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -5620,13 +5614,13 @@
         <v>28492</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -5635,13 +5629,13 @@
         <v>45424</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,10 +5650,10 @@
         <v>360747</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>363</v>
@@ -5763,10 +5757,10 @@
         <v>370</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -5775,13 +5769,13 @@
         <v>38721</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -5790,13 +5784,13 @@
         <v>84549</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5805,13 @@
         <v>382568</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>380</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>381</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -5826,13 +5820,13 @@
         <v>459856</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M8" s="7">
         <v>697</v>
@@ -5841,13 +5835,13 @@
         <v>842424</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5909,13 @@
         <v>41814</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -5930,13 +5924,13 @@
         <v>38999</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -5945,13 +5939,13 @@
         <v>80813</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5960,13 @@
         <v>515438</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H11" s="7">
         <v>786</v>
@@ -5981,13 +5975,13 @@
         <v>543636</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M11" s="7">
         <v>1290</v>
@@ -5996,13 +5990,13 @@
         <v>1059074</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,7 +6052,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6070,13 +6064,13 @@
         <v>44270</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>123</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -6085,13 +6079,13 @@
         <v>49046</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>408</v>
+        <v>305</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -6100,13 +6094,13 @@
         <v>93316</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>409</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>406</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6115,13 @@
         <v>679720</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H14" s="7">
         <v>1063</v>
@@ -6136,28 +6130,28 @@
         <v>698215</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M14" s="7">
         <v>1685</v>
       </c>
       <c r="N14" s="7">
-        <v>1377935</v>
+        <v>1377936</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>416</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,7 +6193,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6213,7 +6207,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6225,13 +6219,13 @@
         <v>34806</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H16" s="7">
         <v>91</v>
@@ -6240,13 +6234,13 @@
         <v>53949</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>417</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>420</v>
+        <v>127</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M16" s="7">
         <v>128</v>
@@ -6255,13 +6249,13 @@
         <v>88756</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,13 +6270,13 @@
         <v>564280</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H17" s="7">
         <v>909</v>
@@ -6291,13 +6285,13 @@
         <v>539627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>428</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>1534</v>
@@ -6306,13 +6300,13 @@
         <v>1103906</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,7 +6362,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6380,13 +6374,13 @@
         <v>50012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>434</v>
+        <v>246</v>
       </c>
       <c r="H19" s="7">
         <v>143</v>
@@ -6395,13 +6389,13 @@
         <v>76743</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>437</v>
+        <v>375</v>
       </c>
       <c r="M19" s="7">
         <v>217</v>
@@ -6410,13 +6404,13 @@
         <v>126755</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>237</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,16 +6422,16 @@
         <v>954</v>
       </c>
       <c r="D20" s="7">
-        <v>647743</v>
+        <v>647742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>440</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>1562</v>
@@ -6446,13 +6440,13 @@
         <v>948272</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>443</v>
+        <v>383</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>2516</v>
@@ -6461,13 +6455,13 @@
         <v>1596015</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>438</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,7 +6473,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6535,13 +6529,13 @@
         <v>233661</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H22" s="7">
         <v>421</v>
@@ -6550,13 +6544,13 @@
         <v>285951</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>237</v>
+        <v>444</v>
       </c>
       <c r="M22" s="7">
         <v>657</v>
@@ -6565,13 +6559,13 @@
         <v>519612</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,13 +6580,13 @@
         <v>3150497</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H23" s="7">
         <v>4937</v>
@@ -6601,13 +6595,13 @@
         <v>3516071</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>244</v>
+        <v>451</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M23" s="7">
         <v>8076</v>
@@ -6616,13 +6610,13 @@
         <v>6666567</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,7 +6672,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B79D3F48-DA2C-4FE4-8225-9BC559E041ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADCD1282-7D71-40F0-83C4-C04C46E38FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4758F23F-3C13-4E80-A72B-EAB476C3AE97}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{47CF61CC-A2DD-4760-8212-4DAE1989B90A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="517">
   <si>
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>4,68%</t>
@@ -191,7 +191,7 @@
     <t>95,07%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -248,7 +248,7 @@
     <t>94,4%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>5,16%</t>
@@ -299,7 +299,7 @@
     <t>96,51%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>4,56%</t>
@@ -350,450 +350,567 @@
     <t>95,38%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>9,31%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>90,69%</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
     <t>92,7%</t>
   </si>
   <si>
@@ -815,9 +932,6 @@
     <t>11,49%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
     <t>14,95%</t>
   </si>
   <si>
@@ -839,9 +953,6 @@
     <t>85,05%</t>
   </si>
   <si>
-    <t>91,32%</t>
-  </si>
-  <si>
     <t>91,27%</t>
   </si>
   <si>
@@ -1016,52 +1127,100 @@
     <t>93,79%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>92,4%</t>
   </si>
   <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
   </si>
   <si>
     <t>7,69%</t>
@@ -1097,316 +1256,340 @@
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
 </sst>
 </file>
@@ -1818,8 +2001,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C6753B-0DB4-4FE8-AA7C-9674794ECD44}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00048AA2-CC1D-422B-B0A5-82E175796267}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2711,10 +2894,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7">
-        <v>64622</v>
+        <v>29369</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
@@ -2726,10 +2909,10 @@
         <v>106</v>
       </c>
       <c r="H19" s="7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I19" s="7">
-        <v>45201</v>
+        <v>29149</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>107</v>
@@ -2741,10 +2924,10 @@
         <v>109</v>
       </c>
       <c r="M19" s="7">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="N19" s="7">
-        <v>109824</v>
+        <v>58518</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>110</v>
@@ -2762,10 +2945,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>457</v>
+        <v>273</v>
       </c>
       <c r="D20" s="7">
-        <v>437844</v>
+        <v>263214</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>113</v>
@@ -2777,10 +2960,10 @@
         <v>115</v>
       </c>
       <c r="H20" s="7">
-        <v>616</v>
+        <v>340</v>
       </c>
       <c r="I20" s="7">
-        <v>631641</v>
+        <v>313785</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>116</v>
@@ -2792,10 +2975,10 @@
         <v>118</v>
       </c>
       <c r="M20" s="7">
-        <v>1073</v>
+        <v>613</v>
       </c>
       <c r="N20" s="7">
-        <v>1069484</v>
+        <v>576999</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>119</v>
@@ -2813,10 +2996,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2828,10 +3011,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2843,10 +3026,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2860,55 +3043,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="D22" s="7">
-        <v>226720</v>
+        <v>35253</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="I22" s="7">
-        <v>217084</v>
+        <v>16053</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>434</v>
+        <v>50</v>
       </c>
       <c r="N22" s="7">
-        <v>443804</v>
+        <v>51306</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,49 +3100,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2986</v>
+        <v>184</v>
       </c>
       <c r="D23" s="7">
-        <v>3048805</v>
+        <v>174630</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
-        <v>3090</v>
+        <v>276</v>
       </c>
       <c r="I23" s="7">
-        <v>3162114</v>
+        <v>317855</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>6076</v>
+        <v>460</v>
       </c>
       <c r="N23" s="7">
-        <v>6210918</v>
+        <v>492485</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,63 +3151,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>227</v>
+      </c>
+      <c r="D25" s="7">
+        <v>226720</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
+        <v>207</v>
+      </c>
+      <c r="I25" s="7">
+        <v>217084</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>434</v>
+      </c>
+      <c r="N25" s="7">
+        <v>443804</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2986</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3048805</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3090</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3162113</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6076</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6210918</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275525</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654722</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3037,8 +3376,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7C61DD-6B2C-4BBD-8A52-0FF94787338A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CC8EF3-C34F-4BC3-BF52-1185A805E399}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3054,7 +3393,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3161,13 +3500,13 @@
         <v>41490</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -3176,13 +3515,13 @@
         <v>51300</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>90</v>
@@ -3191,13 +3530,13 @@
         <v>92791</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3551,13 @@
         <v>411615</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>370</v>
@@ -3227,13 +3566,13 @@
         <v>378039</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>775</v>
@@ -3242,13 +3581,13 @@
         <v>789654</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3655,13 @@
         <v>65431</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -3331,13 +3670,13 @@
         <v>56850</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>116</v>
@@ -3346,13 +3685,13 @@
         <v>122281</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3706,13 @@
         <v>620807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>515</v>
@@ -3382,13 +3721,13 @@
         <v>552364</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>1120</v>
@@ -3397,13 +3736,13 @@
         <v>1173170</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3810,13 @@
         <v>56671</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -3486,13 +3825,13 @@
         <v>51924</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -3504,10 +3843,10 @@
         <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3861,13 @@
         <v>623383</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>612</v>
@@ -3537,13 +3876,13 @@
         <v>654011</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>1209</v>
@@ -3555,10 +3894,10 @@
         <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3965,13 @@
         <v>48013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -3641,13 +3980,13 @@
         <v>46201</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -3656,13 +3995,13 @@
         <v>94214</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +4016,13 @@
         <v>566604</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -3692,13 +4031,13 @@
         <v>567871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>1002</v>
@@ -3707,13 +4046,13 @@
         <v>1134475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +4120,13 @@
         <v>39943</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -3796,13 +4135,13 @@
         <v>27162</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -3811,13 +4150,13 @@
         <v>67105</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +4171,13 @@
         <v>388401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>380</v>
@@ -3847,13 +4186,13 @@
         <v>419513</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>737</v>
@@ -3862,13 +4201,13 @@
         <v>807913</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,49 +4269,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7">
-        <v>71439</v>
+        <v>32028</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="H19" s="7">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>61521</v>
+        <v>25339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="M19" s="7">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="N19" s="7">
-        <v>132959</v>
+        <v>57367</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,49 +4320,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>437</v>
+        <v>251</v>
       </c>
       <c r="D20" s="7">
-        <v>485392</v>
+        <v>275767</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
-        <v>634</v>
+        <v>319</v>
       </c>
       <c r="I20" s="7">
-        <v>678291</v>
+        <v>327720</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="M20" s="7">
-        <v>1071</v>
+        <v>570</v>
       </c>
       <c r="N20" s="7">
-        <v>1163684</v>
+        <v>603487</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,10 +4371,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>502</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7">
-        <v>556831</v>
+        <v>307795</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4047,10 +4386,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>691</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>739812</v>
+        <v>353059</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4062,10 +4401,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1193</v>
+        <v>624</v>
       </c>
       <c r="N21" s="7">
-        <v>1296643</v>
+        <v>660854</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4079,55 +4418,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>294</v>
+        <v>35</v>
       </c>
       <c r="D22" s="7">
-        <v>322987</v>
+        <v>39411</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
-        <v>280</v>
+        <v>33</v>
       </c>
       <c r="I22" s="7">
-        <v>294958</v>
+        <v>36181</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
-        <v>574</v>
+        <v>68</v>
       </c>
       <c r="N22" s="7">
-        <v>617945</v>
+        <v>75592</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,49 +4475,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2908</v>
+        <v>186</v>
       </c>
       <c r="D23" s="7">
-        <v>3096201</v>
+        <v>209625</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="H23" s="7">
-        <v>3006</v>
+        <v>315</v>
       </c>
       <c r="I23" s="7">
-        <v>3250090</v>
+        <v>350572</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="M23" s="7">
-        <v>5914</v>
+        <v>501</v>
       </c>
       <c r="N23" s="7">
-        <v>6346291</v>
+        <v>560197</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,63 +4526,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249036</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>348</v>
+      </c>
+      <c r="I24" s="7">
+        <v>386753</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>569</v>
+      </c>
+      <c r="N24" s="7">
+        <v>635789</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>294</v>
+      </c>
+      <c r="D25" s="7">
+        <v>322987</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="7">
+        <v>280</v>
+      </c>
+      <c r="I25" s="7">
+        <v>294958</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M25" s="7">
+        <v>574</v>
+      </c>
+      <c r="N25" s="7">
+        <v>617945</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2908</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3096201</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3006</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3250089</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5914</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6346290</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3202</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3419188</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3286</v>
       </c>
-      <c r="I24" s="7">
-        <v>3545048</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3545047</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6488</v>
       </c>
-      <c r="N24" s="7">
-        <v>6964236</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6964235</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4256,8 +4751,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF613C8-52F8-4838-9055-75FAE017CA97}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C894F2-2C8E-4344-B55B-187843C7B898}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4273,7 +4768,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4380,13 +4875,13 @@
         <v>25645</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
@@ -4395,13 +4890,13 @@
         <v>45490</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="M4" s="7">
         <v>69</v>
@@ -4410,13 +4905,13 @@
         <v>71135</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4926,13 @@
         <v>393818</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="H5" s="7">
         <v>358</v>
@@ -4446,13 +4941,13 @@
         <v>350265</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="M5" s="7">
         <v>728</v>
@@ -4461,13 +4956,13 @@
         <v>744083</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +5030,13 @@
         <v>51683</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -4550,13 +5045,13 @@
         <v>46723</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
@@ -4565,13 +5060,13 @@
         <v>98406</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +5081,13 @@
         <v>538813</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
         <v>530</v>
@@ -4601,13 +5096,13 @@
         <v>516821</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>1050</v>
@@ -4616,13 +5111,13 @@
         <v>1055634</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +5185,13 @@
         <v>49237</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -4705,13 +5200,13 @@
         <v>52916</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -4720,13 +5215,13 @@
         <v>102152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +5236,13 @@
         <v>619860</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="H11" s="7">
         <v>612</v>
@@ -4756,13 +5251,13 @@
         <v>608470</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
         <v>1201</v>
@@ -4771,13 +5266,13 @@
         <v>1228331</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +5340,13 @@
         <v>40725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -4860,13 +5355,13 @@
         <v>44708</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -4875,13 +5370,13 @@
         <v>85433</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +5391,13 @@
         <v>605323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
         <v>561</v>
@@ -4911,10 +5406,10 @@
         <v>604369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>97</v>
@@ -4926,13 +5421,13 @@
         <v>1209692</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5495,13 @@
         <v>36957</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -5015,13 +5510,13 @@
         <v>41376</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -5030,13 +5525,13 @@
         <v>78332</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5546,13 @@
         <v>440961</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>397</v>
@@ -5066,13 +5561,13 @@
         <v>455473</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>789</v>
@@ -5081,13 +5576,13 @@
         <v>896435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,49 +5644,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>56886</v>
+        <v>25416</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="H19" s="7">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I19" s="7">
-        <v>64066</v>
+        <v>28106</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="M19" s="7">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="N19" s="7">
-        <v>120953</v>
+        <v>53521</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,49 +5695,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>565</v>
+        <v>299</v>
       </c>
       <c r="D20" s="7">
-        <v>534442</v>
+        <v>308914</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
-        <v>604</v>
+        <v>328</v>
       </c>
       <c r="I20" s="7">
-        <v>713865</v>
+        <v>349656</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
-        <v>1169</v>
+        <v>627</v>
       </c>
       <c r="N20" s="7">
-        <v>1248306</v>
+        <v>658571</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,10 +5746,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5266,10 +5761,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5281,10 +5776,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5298,55 +5793,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="D22" s="7">
-        <v>261133</v>
+        <v>31471</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>261</v>
+        <v>379</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="H22" s="7">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="I22" s="7">
-        <v>295278</v>
+        <v>35960</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>381</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>382</v>
       </c>
       <c r="M22" s="7">
-        <v>525</v>
+        <v>61</v>
       </c>
       <c r="N22" s="7">
-        <v>556411</v>
+        <v>67431</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,49 +5850,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2982</v>
+        <v>266</v>
       </c>
       <c r="D23" s="7">
-        <v>3133217</v>
+        <v>225527</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>268</v>
+        <v>388</v>
       </c>
       <c r="H23" s="7">
-        <v>3062</v>
+        <v>276</v>
       </c>
       <c r="I23" s="7">
-        <v>3249264</v>
+        <v>364209</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>186</v>
+        <v>389</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>172</v>
+        <v>390</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="M23" s="7">
-        <v>6044</v>
+        <v>542</v>
       </c>
       <c r="N23" s="7">
-        <v>6382481</v>
+        <v>589736</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,63 +5901,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>249</v>
+      </c>
+      <c r="D25" s="7">
+        <v>261133</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H25" s="7">
+        <v>276</v>
+      </c>
+      <c r="I25" s="7">
+        <v>295278</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25" s="7">
+        <v>525</v>
+      </c>
+      <c r="N25" s="7">
+        <v>556411</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2982</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3133217</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3062</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3249264</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6044</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6382481</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5475,8 +6126,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D01DEC-F453-4E53-87AC-4C4CB13AFE7F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDCA6C0-EBCA-4C3F-90CF-59CBD8C3F572}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5492,7 +6143,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5596,46 +6247,46 @@
         <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>16932</v>
+        <v>19192</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>28492</v>
+        <v>25092</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>45424</v>
+        <v>44284</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,46 +6298,46 @@
         <v>163</v>
       </c>
       <c r="D5" s="7">
-        <v>360747</v>
+        <v>380795</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="H5" s="7">
         <v>191</v>
       </c>
       <c r="I5" s="7">
-        <v>326465</v>
+        <v>288108</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="M5" s="7">
         <v>354</v>
       </c>
       <c r="N5" s="7">
-        <v>687212</v>
+        <v>668903</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,7 +6349,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5713,7 +6364,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5728,7 +6379,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5751,46 +6402,46 @@
         <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>45828</v>
+        <v>47738</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>38721</v>
+        <v>35583</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
       </c>
       <c r="N7" s="7">
-        <v>84549</v>
+        <v>83321</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,46 +6453,46 @@
         <v>271</v>
       </c>
       <c r="D8" s="7">
-        <v>382568</v>
+        <v>375809</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>378</v>
+        <v>429</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
       </c>
       <c r="I8" s="7">
-        <v>459856</v>
+        <v>475921</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="M8" s="7">
         <v>697</v>
       </c>
       <c r="N8" s="7">
-        <v>842424</v>
+        <v>851730</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,7 +6504,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5868,7 +6519,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5883,7 +6534,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5906,46 +6557,46 @@
         <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>41814</v>
+        <v>40345</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>386</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
       </c>
       <c r="I10" s="7">
-        <v>38999</v>
+        <v>36485</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
       </c>
       <c r="N10" s="7">
-        <v>80813</v>
+        <v>76830</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>376</v>
+        <v>441</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,46 +6608,46 @@
         <v>504</v>
       </c>
       <c r="D11" s="7">
-        <v>515438</v>
+        <v>495993</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="H11" s="7">
         <v>786</v>
       </c>
       <c r="I11" s="7">
-        <v>543636</v>
+        <v>505202</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="M11" s="7">
         <v>1290</v>
       </c>
       <c r="N11" s="7">
-        <v>1059074</v>
+        <v>1001195</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>385</v>
+        <v>448</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,7 +6659,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6023,7 +6674,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582635</v>
+        <v>541687</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6038,7 +6689,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1139887</v>
+        <v>1078025</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6061,46 +6712,46 @@
         <v>43</v>
       </c>
       <c r="D13" s="7">
-        <v>44270</v>
+        <v>42188</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>123</v>
+        <v>451</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>403</v>
+        <v>146</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
       </c>
       <c r="I13" s="7">
-        <v>49046</v>
+        <v>45697</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>404</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>305</v>
+        <v>453</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
       </c>
       <c r="N13" s="7">
-        <v>93316</v>
+        <v>87885</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>454</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,46 +6763,46 @@
         <v>622</v>
       </c>
       <c r="D14" s="7">
-        <v>679720</v>
+        <v>845598</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>457</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>408</v>
+        <v>154</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="H14" s="7">
         <v>1063</v>
       </c>
       <c r="I14" s="7">
-        <v>698215</v>
+        <v>667184</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>410</v>
+        <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>311</v>
+        <v>459</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>1685</v>
       </c>
       <c r="N14" s="7">
-        <v>1377936</v>
+        <v>1512782</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>460</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,7 +6814,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6178,7 +6829,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6193,7 +6844,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6216,46 +6867,46 @@
         <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>34806</v>
+        <v>32946</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="H16" s="7">
         <v>91</v>
       </c>
       <c r="I16" s="7">
-        <v>53949</v>
+        <v>49343</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>127</v>
+        <v>467</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="M16" s="7">
         <v>128</v>
       </c>
       <c r="N16" s="7">
-        <v>88756</v>
+        <v>82289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>419</v>
+        <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,46 +6918,46 @@
         <v>625</v>
       </c>
       <c r="D17" s="7">
-        <v>564280</v>
+        <v>527291</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7">
         <v>909</v>
       </c>
       <c r="I17" s="7">
-        <v>539627</v>
+        <v>495544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>476</v>
       </c>
       <c r="M17" s="7">
         <v>1534</v>
       </c>
       <c r="N17" s="7">
-        <v>1103906</v>
+        <v>1022835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,7 +6969,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6333,7 +6984,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6348,7 +6999,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1192662</v>
+        <v>1105124</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6368,49 +7019,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7">
-        <v>50012</v>
+        <v>29875</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>246</v>
+        <v>481</v>
       </c>
       <c r="H19" s="7">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="I19" s="7">
-        <v>76743</v>
+        <v>31904</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>432</v>
+        <v>363</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>375</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="N19" s="7">
-        <v>126755</v>
+        <v>61780</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>181</v>
+        <v>483</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,49 +7070,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>954</v>
+        <v>524</v>
       </c>
       <c r="D20" s="7">
-        <v>647742</v>
+        <v>338290</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>487</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="H20" s="7">
-        <v>1562</v>
+        <v>763</v>
       </c>
       <c r="I20" s="7">
-        <v>948272</v>
+        <v>576464</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>372</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>383</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>489</v>
       </c>
       <c r="M20" s="7">
-        <v>2516</v>
+        <v>1287</v>
       </c>
       <c r="N20" s="7">
-        <v>1596015</v>
+        <v>914753</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>189</v>
+        <v>490</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,10 +7121,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6485,10 +7136,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025015</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6500,10 +7151,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2733</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1722770</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6517,55 +7168,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="D22" s="7">
-        <v>233661</v>
+        <v>16348</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="H22" s="7">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="I22" s="7">
-        <v>285951</v>
+        <v>37388</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>196</v>
+        <v>496</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="M22" s="7">
-        <v>657</v>
+        <v>107</v>
       </c>
       <c r="N22" s="7">
-        <v>519612</v>
+        <v>53736</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>445</v>
+        <v>362</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>447</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,49 +7225,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3139</v>
+        <v>430</v>
       </c>
       <c r="D23" s="7">
-        <v>3150497</v>
+        <v>266411</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="H23" s="7">
-        <v>4937</v>
+        <v>799</v>
       </c>
       <c r="I23" s="7">
-        <v>3516071</v>
+        <v>387006</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>204</v>
+        <v>503</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="M23" s="7">
-        <v>8076</v>
+        <v>1229</v>
       </c>
       <c r="N23" s="7">
-        <v>6666567</v>
+        <v>653417</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>453</v>
+        <v>370</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>454</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,63 +7276,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424394</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707153</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>236</v>
+      </c>
+      <c r="D25" s="7">
+        <v>228631</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H25" s="7">
+        <v>421</v>
+      </c>
+      <c r="I25" s="7">
+        <v>261492</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="M25" s="7">
+        <v>657</v>
+      </c>
+      <c r="N25" s="7">
+        <v>490123</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3139</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3230189</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4937</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3395429</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8076</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6625618</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3375</v>
       </c>
-      <c r="D24" s="7">
-        <v>3384158</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458820</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5358</v>
       </c>
-      <c r="I24" s="7">
-        <v>3802022</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3656921</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8733</v>
       </c>
-      <c r="N24" s="7">
-        <v>7186179</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7115741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
